--- a/Finflux Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Finflux Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -247,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,6 +413,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -455,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,9 +496,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,6 +548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -962,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1684,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,12 +2109,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Finflux Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
+++ b/Finflux Automation Excels/Client/3035-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Regular-PERIODIC-Newcreateloan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +278,13 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -357,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,10 +404,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2110,219 +2119,202 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="20"/>
+    <col min="3" max="3" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="20"/>
+    <col min="7" max="7" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>1351</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="22">
         <v>42036</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="21">
         <v>1352</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="22">
         <v>42036</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>1364</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>42064</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="21">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="21">
         <v>1365</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>42064</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="21">
         <v>1366</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="22">
         <v>42095</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="21">
         <v>1367</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>42095</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>3</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="21" t="s">
         <v>71</v>
       </c>
     </row>
